--- a/key_stats.xlsx
+++ b/key_stats.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20940" windowHeight="13170"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20940" windowHeight="13170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="key_stats" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="selected_variables" sheetId="3" r:id="rId3"/>
+    <sheet name="correlation_matrix" sheetId="4" r:id="rId4"/>
+    <sheet name="suggested" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="84">
   <si>
     <t>variable</t>
   </si>
@@ -241,13 +243,40 @@
   </si>
   <si>
     <t>A few remarks:</t>
+  </si>
+  <si>
+    <t>col_number</t>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>Check the correlation between each group</t>
+  </si>
+  <si>
+    <t>Dietary</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes, but strong correlation with protein supply</t>
+  </si>
+  <si>
+    <t>Yes - very high correlations among the four highly relevant variables</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +412,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +604,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -725,10 +771,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -782,6 +835,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="238125"/>
+          <a:ext cx="6800000" cy="3561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,8 +1190,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>73</v>
+      <c r="A1" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1136,7 +1232,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1177,7 +1273,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1218,7 +1314,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -1259,7 +1355,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -1300,7 +1396,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -1341,7 +1437,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -1382,7 +1478,7 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -1423,7 +1519,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -1464,7 +1560,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -1505,7 +1601,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -1546,7 +1642,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1587,7 +1683,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1628,7 +1724,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -1669,7 +1765,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -1710,7 +1806,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1751,7 +1847,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1792,7 +1888,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1833,7 +1929,7 @@
     </row>
     <row r="19" spans="1:13" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1874,7 +1970,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -1915,7 +2011,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -1956,7 +2052,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -1997,7 +2093,7 @@
     </row>
     <row r="23" spans="1:13" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -2038,7 +2134,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -2079,7 +2175,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -2120,7 +2216,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
@@ -2161,7 +2257,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
@@ -2202,7 +2298,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -2243,7 +2339,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -2284,7 +2380,7 @@
     </row>
     <row r="30" spans="1:13" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -2325,7 +2421,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -2366,7 +2462,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -2407,7 +2503,7 @@
     </row>
     <row r="33" spans="1:13" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2448,7 +2544,7 @@
     </row>
     <row r="34" spans="1:13" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -2489,7 +2585,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -2530,7 +2626,7 @@
     </row>
     <row r="36" spans="1:13" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
@@ -2571,7 +2667,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -2612,7 +2708,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2653,7 +2749,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2694,7 +2790,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -2735,7 +2831,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
@@ -2776,7 +2872,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
@@ -2817,7 +2913,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -2858,7 +2954,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -2899,7 +2995,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
@@ -2940,7 +3036,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2981,7 +3077,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
@@ -3022,7 +3118,7 @@
     </row>
     <row r="48" spans="1:13" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -3063,7 +3159,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
         <v>36</v>
@@ -3104,7 +3200,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -3145,7 +3241,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -3186,10 +3282,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2">
@@ -3219,10 +3318,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2">
@@ -3252,10 +3354,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2">
@@ -3321,15 +3426,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3454,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,4 +4206,2205 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>0.54854720000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.27291670000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.12980220000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.54854720000000001</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>0.4127267</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.57043549999999998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.27291670000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.4127267</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>0.18350839999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.12980220000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.57043549999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.18350839999999999</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>0.52854968386823498</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.14758057835494801</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.141866948559216</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.134489968687552</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.11889851703417301</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.11297068235874</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8.1324210482223505E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8.7272011413050105E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.9108191593152801E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-2.1450487450041401E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-0.147519735852147</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-0.62730704370426205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.52854968386823498</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>8.8140897855681105E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.0680350042768407E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.144735606870359</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.6982289989428595E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.16012315798826701</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9.7412180522234298E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.17029263617498799</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.116486634026469</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.123879230312959</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.33315020008238799</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-0.69648019817863505</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.14758057835494801</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.8140897855681105E-2</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>0.66420102223951605</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.76081545300377296</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.77418997596978101</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.74897989956278199</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.67195388100301201</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.12633832461104599</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.115704424896168</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.163432263971833</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.14129162462479</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-0.14847567916462501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.141866948559216</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.0680350042768407E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.66420102223951605</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>0.744252254693893</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.66268964105909101</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.73345118303369605</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.62541032969991495</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6.5234090941074199E-2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.21564220370679901</v>
+      </c>
+      <c r="L13" s="2">
+        <v>9.7009235387558998E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5.6564200537807504E-3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-0.14331259951759001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.134489968687552</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.144735606870359</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.76081545300377296</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.744252254693893</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>0.72171288595985295</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.90868822250224301</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.70271797708978601</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.13591234791755499</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.266490296066625</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.129187805139862</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.218502723576353</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-0.22467028335561501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.11889851703417301</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6.6982289989428595E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.77418997596978101</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.66268964105909101</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.72171288595985295</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.71092472537887397</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.63767898059039796</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.116557045224866</v>
+      </c>
+      <c r="K15" s="2">
+        <v>8.0351716489335395E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.16115513626592801</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.14402804131955299</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-6.2152968152713199E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.11297068235874</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.16012315798826701</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.74897989956278199</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.73345118303369605</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.90868822250224301</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.71092472537887397</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>0.67007826773872903</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.12441074194427899</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.23830210395249801</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.152655114269548</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.291952028497381</v>
+      </c>
+      <c r="N16" s="2">
+        <v>-0.26278479077357603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8.1324210482223505E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.7412180522234298E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.67195388100301201</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.62541032969991495</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.70271797708978601</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.63767898059039796</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.67007826773872903</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
+        <v>0.128847051052776</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.10378031349023301</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-5.65661644571641E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>7.08880574041231E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <v>-0.14743504951352299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8.7272011413050105E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.17029263617498799</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.12633832461104599</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6.5234090941074199E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.13591234791755499</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.116557045224866</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.12441074194427899</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.128847051052776</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>0.72319689188408798</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.59231736146091996</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.51012944091448098</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-0.19195483086255499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.9108191593152801E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.116486634026469</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.115704424896168</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.21564220370679901</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.266490296066625</v>
+      </c>
+      <c r="G19" s="2">
+        <v>8.0351716489335395E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.23830210395249801</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.10378031349023301</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.72319689188408798</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <v>0.67959526690095895</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.72112615024937898</v>
+      </c>
+      <c r="N19" s="2">
+        <v>-0.149073905607294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-2.1450487450041401E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.123879230312959</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.163432263971833</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9.7009235387558998E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.129187805139862</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.16115513626592801</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.152655114269548</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-5.65661644571641E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.59231736146091996</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.67959526690095895</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <v>0.78128078940946899</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-0.173907362005946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-0.147519735852147</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.33315020008238799</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.14129162462479</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5.6564200537807504E-3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.218502723576353</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.14402804131955299</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.291952028497381</v>
+      </c>
+      <c r="I21" s="2">
+        <v>7.08880574041231E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.51012944091448098</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.72112615024937898</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.78128078940946899</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
+        <v>-0.274472926828291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-0.62730704370426205</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-0.69648019817863505</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.14847567916462501</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-0.14331259951759001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-0.22467028335561501</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-6.2152968152713199E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-0.26278479077357603</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-0.14743504951352299</v>
+      </c>
+      <c r="J22" s="2">
+        <v>-0.19195483086255499</v>
+      </c>
+      <c r="K22" s="2">
+        <v>-0.149073905607294</v>
+      </c>
+      <c r="L22" s="2">
+        <v>-0.173907362005946</v>
+      </c>
+      <c r="M22" s="2">
+        <v>-0.274472926828291</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="P22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
+        <v>0.57476693615616004</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.56204086257779495</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.55483873258407101</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.52892520790090802</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.51555401170523296</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.51146908853043005</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.45499340155423901</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.45874668184980399</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.41358002124940102</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.35707298896434297</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.34262950655769298</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.28231631829563603</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.13819526159828199</v>
+      </c>
+      <c r="P26" s="2">
+        <v>-5.5535432587655899E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>-6.7441639808723794E-2</v>
+      </c>
+      <c r="R26" s="2">
+        <v>-0.17354334434558</v>
+      </c>
+      <c r="S26" s="2">
+        <v>-0.58662007587921206</v>
+      </c>
+      <c r="T26" s="2">
+        <v>-0.60816619860919696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.57476693615616004</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>0.76225144138530798</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.99273894544790098</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.96906152850497995</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.74142745976963897</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.67414605783272097</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.70344174451674202</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.92435059351153803</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.89374101312265697</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.65324011101350898</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.80790350338001904</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.51292447183029</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.52053676544274297</v>
+      </c>
+      <c r="P27" s="2">
+        <v>-0.23972514839210299</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.18683899369058901</v>
+      </c>
+      <c r="R27" s="2">
+        <v>6.8265473969957103E-3</v>
+      </c>
+      <c r="S27" s="2">
+        <v>-0.75990011467045004</v>
+      </c>
+      <c r="T27" s="2">
+        <v>-0.94084190918167798</v>
+      </c>
+      <c r="V27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.56204086257779495</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.76225144138530798</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>0.73396378556168196</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.68771733002039603</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.99168478436958996</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.67582884713412805</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.96454872913602097</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.66197882097570604</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.59000555176314295</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.65188108208815998</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.455437576786272</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.498365624309282</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.42431308530526801</v>
+      </c>
+      <c r="P28" s="2">
+        <v>-0.21996446712810899</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1.3415577179456999E-2</v>
+      </c>
+      <c r="R28" s="2">
+        <v>-9.2932064217920704E-2</v>
+      </c>
+      <c r="S28" s="2">
+        <v>-0.70718259273731399</v>
+      </c>
+      <c r="T28" s="2">
+        <v>-0.77605951260488404</v>
+      </c>
+      <c r="V28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.55483873258407101</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.99273894544790098</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.73396378556168196</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>0.99155837417099801</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.71629364111153904</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.65342654953175205</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.68314363684285095</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.92167241145669498</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.90712982121664298</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.68197461408614402</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.84536516289782804</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.51331433626228296</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.55770009761349704</v>
+      </c>
+      <c r="P29" s="2">
+        <v>-0.23048108834160499</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.17959191871365399</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1.83549401816097E-2</v>
+      </c>
+      <c r="S29" s="2">
+        <v>-0.76682328938864497</v>
+      </c>
+      <c r="T29" s="2">
+        <v>-0.92275439882897603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.52892520790090802</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.96906152850497995</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.68771733002039603</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.99155837417099801</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>0.67232536652657005</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.616610422348009</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.64371384953823396</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.90184810594696396</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.90453491227216298</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.69893538068783301</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.87055942532951602</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.50314979065288901</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.58190099591483802</v>
+      </c>
+      <c r="P30" s="2">
+        <v>-0.214434624054164</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.16333157031283699</v>
+      </c>
+      <c r="R30" s="2">
+        <v>3.2043774177655797E-2</v>
+      </c>
+      <c r="S30" s="2">
+        <v>-0.76037520310748496</v>
+      </c>
+      <c r="T30" s="2">
+        <v>-0.89003611701757601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.51555401170523296</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.74142745976963897</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.99168478436958996</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.71629364111153904</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.67232536652657005</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>0.64118910491694903</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.99008109994805504</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.64607041027901102</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.57419913003899203</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.65228593260808898</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.43900048026723099</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.49852396496058099</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.41710934786742898</v>
+      </c>
+      <c r="P31" s="2">
+        <v>-0.20262013483841501</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>3.8816953956855402E-2</v>
+      </c>
+      <c r="R31" s="2">
+        <v>-8.6434037197561403E-2</v>
+      </c>
+      <c r="S31" s="2">
+        <v>-0.68714882872014604</v>
+      </c>
+      <c r="T31" s="2">
+        <v>-0.75120557546100897</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.51146908853043005</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.67414605783272097</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.67582884713412805</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.65342654953175205</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.616610422348009</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.64118910491694903</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
+        <v>0.60816743743224899</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.61056456277809201</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.55982245956158605</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.49954421656801101</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.452757802290641</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.49097965548581501</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.23445084934671001</v>
+      </c>
+      <c r="P32" s="2">
+        <v>-0.175705370893847</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.113099490043712</v>
+      </c>
+      <c r="R32" s="2">
+        <v>-0.123974321560496</v>
+      </c>
+      <c r="S32" s="2">
+        <v>-0.66710739519939899</v>
+      </c>
+      <c r="T32" s="2">
+        <v>-0.641172842640651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.45499340155423901</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.70344174451674202</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.96454872913602097</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.68314363684285095</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.64371384953823396</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.99008109994805504</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.60816743743224899</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
+        <v>0.61366700103404503</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.54406330104889</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.64481239411883695</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.41226279317818598</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.49420504147269501</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.40355848771999597</v>
+      </c>
+      <c r="P33" s="2">
+        <v>-0.17908679088103999</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>6.34317108446419E-2</v>
+      </c>
+      <c r="R33" s="2">
+        <v>-8.1058563825325794E-2</v>
+      </c>
+      <c r="S33" s="2">
+        <v>-0.65447682273920005</v>
+      </c>
+      <c r="T33" s="2">
+        <v>-0.70860483771660299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.45874668184980399</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.92435059351153803</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.66197882097570604</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.92167241145669498</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.90184810594696396</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.64607041027901102</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.61056456277809201</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.61366700103404503</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>0.98587383641534099</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.74091675618309805</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.91410910601392603</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.51584923891165502</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.49602055720879001</v>
+      </c>
+      <c r="P34" s="2">
+        <v>-0.26639339478714902</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.298938670291582</v>
+      </c>
+      <c r="R34" s="2">
+        <v>-2.8260918505563701E-2</v>
+      </c>
+      <c r="S34" s="2">
+        <v>-0.76993165340290903</v>
+      </c>
+      <c r="T34" s="2">
+        <v>-0.79093091441551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.41358002124940102</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.89374101312265697</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.59000555176314295</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.90712982121664298</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.90453491227216298</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.57419913003899203</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.55982245956158605</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.54406330104889</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.98587383641534099</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2">
+        <v>0.75783003989905695</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.96765605238955599</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.50180893819095196</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.51408958345934397</v>
+      </c>
+      <c r="P35" s="2">
+        <v>-0.25744179181589699</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.30262407841175198</v>
+      </c>
+      <c r="R35" s="2">
+        <v>-2.03062561210181E-2</v>
+      </c>
+      <c r="S35" s="2">
+        <v>-0.75335539941582697</v>
+      </c>
+      <c r="T35" s="2">
+        <v>-0.74445111121989704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.35707298896434297</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.65324011101350898</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.65188108208815998</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.68197461408614402</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.69893538068783301</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.65228593260808898</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.49954421656801101</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.64481239411883695</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.74091675618309805</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.75783003989905695</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
+        <v>0.73651218907646698</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.53134715067685701</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.64763812365456297</v>
+      </c>
+      <c r="P36" s="2">
+        <v>-0.189642621471944</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.226543486125421</v>
+      </c>
+      <c r="R36" s="2">
+        <v>-4.1322129822739299E-2</v>
+      </c>
+      <c r="S36" s="2">
+        <v>-0.74010715324613696</v>
+      </c>
+      <c r="T36" s="2">
+        <v>-0.53774036893098098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.34262950655769298</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.80790350338001904</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.455437576786272</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.84536516289782804</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.87055942532951602</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.43900048026723099</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.452757802290641</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.41226279317818598</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.91410910601392603</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.96765605238955599</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.73651218907646698</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2">
+        <v>0.45294291358405803</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.52319400800176696</v>
+      </c>
+      <c r="P37" s="2">
+        <v>-0.22472696325198799</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0.27702150903849398</v>
+      </c>
+      <c r="R37" s="2">
+        <v>-3.4339602218594E-3</v>
+      </c>
+      <c r="S37" s="2">
+        <v>-0.68960549852580399</v>
+      </c>
+      <c r="T37" s="2">
+        <v>-0.64581871467215102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.28231631829563603</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.51292447183029</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.498365624309282</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.51331433626228296</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.50314979065288901</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.49852396496058099</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.49097965548581501</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.49420504147269501</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.51584923891165502</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.50180893819095196</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.53134715067685701</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.45294291358405803</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2">
+        <v>0.55667997885098597</v>
+      </c>
+      <c r="P38" s="2">
+        <v>-0.27750680242384601</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>3.2546037851047399E-2</v>
+      </c>
+      <c r="R38" s="2">
+        <v>-8.7642932056833295E-2</v>
+      </c>
+      <c r="S38" s="2">
+        <v>-0.56242908760895405</v>
+      </c>
+      <c r="T38" s="2">
+        <v>-0.49275448223846302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.13819526159828199</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.52053676544274297</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.42431308530526801</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.55770009761349704</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.58190099591483802</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.41710934786742898</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.23445084934671001</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.40355848771999597</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.49602055720879001</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.51408958345934397</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.64763812365456297</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.52319400800176696</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.55667997885098597</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2">
+        <v>-0.26947817017953801</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0.14458715086038099</v>
+      </c>
+      <c r="R39" s="2">
+        <v>2.8120580491349401E-2</v>
+      </c>
+      <c r="S39" s="2">
+        <v>-0.60515604787602495</v>
+      </c>
+      <c r="T39" s="2">
+        <v>-0.44722407153778398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-5.5535432587655899E-2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-0.23972514839210299</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-0.21996446712810899</v>
+      </c>
+      <c r="E40" s="2">
+        <v>-0.23048108834160499</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-0.214434624054164</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-0.20262013483841501</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-0.175705370893847</v>
+      </c>
+      <c r="I40" s="2">
+        <v>-0.17908679088103999</v>
+      </c>
+      <c r="J40" s="2">
+        <v>-0.26639339478714902</v>
+      </c>
+      <c r="K40" s="2">
+        <v>-0.25744179181589699</v>
+      </c>
+      <c r="L40" s="2">
+        <v>-0.189642621471944</v>
+      </c>
+      <c r="M40" s="2">
+        <v>-0.22472696325198799</v>
+      </c>
+      <c r="N40" s="2">
+        <v>-0.27750680242384601</v>
+      </c>
+      <c r="O40" s="2">
+        <v>-0.26947817017953801</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2">
+        <v>-7.8742457275920705E-2</v>
+      </c>
+      <c r="R40" s="2">
+        <v>-5.4692143271051E-2</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0.24492658352756899</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0.19951344602409701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-6.7441639808723794E-2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.18683899369058901</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.3415577179456999E-2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.17959191871365399</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.16333157031283699</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3.8816953956855402E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.113099490043712</v>
+      </c>
+      <c r="I41" s="2">
+        <v>6.34317108446419E-2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.298938670291582</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.30262407841175198</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.226543486125421</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.27702150903849398</v>
+      </c>
+      <c r="N41" s="2">
+        <v>3.2546037851047399E-2</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.14458715086038099</v>
+      </c>
+      <c r="P41" s="2">
+        <v>-7.8742457275920705E-2</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2">
+        <v>-3.8911180730903501E-2</v>
+      </c>
+      <c r="S41" s="2">
+        <v>-0.11152490307115399</v>
+      </c>
+      <c r="T41" s="2">
+        <v>-0.11117078083250601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-0.17354334434558</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6.8265473969957103E-3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-9.2932064217920704E-2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.83549401816097E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3.2043774177655797E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>-8.6434037197561403E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-0.123974321560496</v>
+      </c>
+      <c r="I42" s="2">
+        <v>-8.1058563825325794E-2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>-2.8260918505563701E-2</v>
+      </c>
+      <c r="K42" s="2">
+        <v>-2.03062561210181E-2</v>
+      </c>
+      <c r="L42" s="2">
+        <v>-4.1322129822739299E-2</v>
+      </c>
+      <c r="M42" s="2">
+        <v>-3.4339602218594E-3</v>
+      </c>
+      <c r="N42" s="2">
+        <v>-8.7642932056833295E-2</v>
+      </c>
+      <c r="O42" s="2">
+        <v>2.8120580491349401E-2</v>
+      </c>
+      <c r="P42" s="2">
+        <v>-5.4692143271051E-2</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>-3.8911180730903501E-2</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2">
+        <v>-2.1879063576572901E-2</v>
+      </c>
+      <c r="T42" s="2">
+        <v>-1.28359032846428E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-0.58662007587921206</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-0.75990011467045004</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-0.70718259273731399</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-0.76682328938864497</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-0.76037520310748496</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-0.68714882872014604</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-0.66710739519939899</v>
+      </c>
+      <c r="I43" s="2">
+        <v>-0.65447682273920005</v>
+      </c>
+      <c r="J43" s="2">
+        <v>-0.76993165340290903</v>
+      </c>
+      <c r="K43" s="2">
+        <v>-0.75335539941582697</v>
+      </c>
+      <c r="L43" s="2">
+        <v>-0.74010715324613696</v>
+      </c>
+      <c r="M43" s="2">
+        <v>-0.68960549852580399</v>
+      </c>
+      <c r="N43" s="2">
+        <v>-0.56242908760895405</v>
+      </c>
+      <c r="O43" s="2">
+        <v>-0.60515604787602495</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0.24492658352756899</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>-0.11152490307115399</v>
+      </c>
+      <c r="R43" s="2">
+        <v>-2.1879063576572901E-2</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2">
+        <v>0.71063289340999203</v>
+      </c>
+      <c r="V43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-0.60816619860919696</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-0.94084190918167798</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-0.77605951260488404</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-0.92275439882897603</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-0.89003611701757601</v>
+      </c>
+      <c r="G44" s="2">
+        <v>-0.75120557546100897</v>
+      </c>
+      <c r="H44" s="2">
+        <v>-0.641172842640651</v>
+      </c>
+      <c r="I44" s="2">
+        <v>-0.70860483771660299</v>
+      </c>
+      <c r="J44" s="2">
+        <v>-0.79093091441551</v>
+      </c>
+      <c r="K44" s="2">
+        <v>-0.74445111121989704</v>
+      </c>
+      <c r="L44" s="2">
+        <v>-0.53774036893098098</v>
+      </c>
+      <c r="M44" s="2">
+        <v>-0.64581871467215102</v>
+      </c>
+      <c r="N44" s="2">
+        <v>-0.49275448223846302</v>
+      </c>
+      <c r="O44" s="2">
+        <v>-0.44722407153778398</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.19951344602409701</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>-0.11117078083250601</v>
+      </c>
+      <c r="R44" s="2">
+        <v>-1.28359032846428E-2</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0.71063289340999203</v>
+      </c>
+      <c r="T44" s="2"/>
+      <c r="V44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2">
+        <v>-0.16648519361646899</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-0.31572640511380101</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.54400439811980905</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.42308712404237298</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.330826240922731</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-0.16648519361646899</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>0.30687864562717798</v>
+      </c>
+      <c r="E49" s="2">
+        <v>-0.13014137368069301</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4.7707558731151997E-2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>-0.15450973880253399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-0.31572640511380101</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.30687864562717798</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>-0.40514092988685202</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-0.38424900168486797</v>
+      </c>
+      <c r="G50" s="2">
+        <v>-0.471413546903243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.54400439811980905</v>
+      </c>
+      <c r="C51" s="2">
+        <v>-0.13014137368069301</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-0.40514092988685202</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
+        <v>0.67407837245114</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.589529082618234</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.42308712404237298</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4.7707558731151997E-2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-0.38424900168486797</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.67407837245114</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>0.88784211405435698</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.330826240922731</v>
+      </c>
+      <c r="C53" s="2">
+        <v>-0.15450973880253399</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-0.471413546903243</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.589529082618234</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.88784211405435698</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B26:T44">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:N22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:G53">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>